--- a/Docs/DemoSched-Guy.xlsx
+++ b/Docs/DemoSched-Guy.xlsx
@@ -134,12 +134,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC33"/>
+        <bgColor rgb="FF339966"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,7 +188,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -186,6 +198,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -202,6 +230,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00CC33"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -213,13 +301,13 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -268,75 +356,97 @@
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -347,52 +457,70 @@
       <c r="A9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
@@ -403,60 +531,87 @@
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
@@ -467,42 +622,51 @@
       <c r="A18" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="0" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -510,13 +674,20 @@
       <c r="A20" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="0" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -524,32 +695,45 @@
       <c r="A21" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
@@ -557,72 +741,96 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
